--- a/input.xlsx
+++ b/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\MATLAB\R2014a\bin\PhD\alon\compartmentization\1 carbon metabolism - new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alon\Documents\MATLAB\bin\PhD\alon\compartmentization\compartmentalaized MFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Reaction List" sheetId="1" r:id="rId1"/>
     <sheet name="Metabolite List" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -280,13 +280,40 @@
   </si>
   <si>
     <t>FormylTHF_MT</t>
+  </si>
+  <si>
+    <t>labeled_atoms/enrichment</t>
+  </si>
+  <si>
+    <t>0;0/1</t>
+  </si>
+  <si>
+    <t>0;0;0/1</t>
+  </si>
+  <si>
+    <t>1;1;1/1</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>Measured flux - HF [mM/h]</t>
+  </si>
+  <si>
+    <t>Measured flux STD - HF</t>
+  </si>
+  <si>
+    <t>Measured flux - LF [mM/h]</t>
+  </si>
+  <si>
+    <t>Measured flux STD - LF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -335,26 +362,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -369,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,9 +420,6 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -691,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALZ49"/>
+  <dimension ref="A1:ALW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,12 +725,14 @@
     <col min="13" max="13" width="7" style="1"/>
     <col min="14" max="14" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="1"/>
-    <col min="17" max="1014" width="15.140625" style="1"/>
-    <col min="1015" max="1018" width="15.140625"/>
+    <col min="16" max="16" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="1011" width="15.140625" style="1"/>
+    <col min="1012" max="1015" width="15.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -763,18 +776,22 @@
       <c r="O1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="P1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -802,18 +819,23 @@
         <v>16</v>
       </c>
       <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
+      <c r="P2" s="11">
+        <v>7.74</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R2" s="11">
+        <v>1.68</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0.03</v>
+      </c>
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -848,11 +870,8 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-    </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
@@ -887,11 +906,8 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
@@ -926,11 +942,8 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>63</v>
       </c>
@@ -967,11 +980,8 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>64</v>
       </c>
@@ -1000,11 +1010,8 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
@@ -1039,11 +1046,8 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -1078,11 +1082,8 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>55</v>
       </c>
@@ -1110,18 +1111,23 @@
         <v>46</v>
       </c>
       <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="P10" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="R10" s="11">
+        <v>-0.84</v>
+      </c>
+      <c r="S10" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
@@ -1151,26 +1157,15 @@
         <v>20</v>
       </c>
       <c r="O11" s="11"/>
-      <c r="P11" s="11">
-        <f>0.9*0.76</f>
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="Q11" s="11">
-        <f>1.1*0.76</f>
-        <v>0.83600000000000008</v>
-      </c>
-      <c r="R11" s="16">
-        <v>0.76</v>
-      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
@@ -1205,11 +1200,8 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>65</v>
       </c>
@@ -1246,11 +1238,8 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>66</v>
       </c>
@@ -1287,11 +1276,8 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>56</v>
       </c>
@@ -1326,11 +1312,8 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>57</v>
       </c>
@@ -1365,11 +1348,8 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
@@ -1404,11 +1384,8 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>67</v>
       </c>
@@ -1436,18 +1413,23 @@
         <v>46</v>
       </c>
       <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="P18" s="11">
+        <v>1.24</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="S18" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>68</v>
       </c>
@@ -1460,12 +1442,10 @@
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="11">
-        <f>0.9*4.56</f>
-        <v>4.1040000000000001</v>
+        <v>6.21</v>
       </c>
       <c r="G19" s="11">
-        <f>1.1*4.56</f>
-        <v>5.016</v>
+        <v>7.59</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1479,19 +1459,13 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="16">
-        <f>6*R11</f>
-        <v>4.5600000000000005</v>
-      </c>
+      <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>69</v>
       </c>
@@ -1526,11 +1500,8 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>73</v>
       </c>
@@ -1565,11 +1536,8 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-    </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>83</v>
       </c>
@@ -1604,11 +1572,8 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1631,11 +1596,8 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-    </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1658,11 +1620,8 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1685,11 +1644,8 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1712,11 +1668,8 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1739,11 +1692,8 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1766,11 +1716,8 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1793,11 +1740,8 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1820,11 +1764,8 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1847,11 +1788,8 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1874,11 +1812,8 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1901,11 +1836,8 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1928,11 +1860,8 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1955,11 +1884,8 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1982,11 +1908,8 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2009,11 +1932,8 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2036,11 +1956,8 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -2063,11 +1980,8 @@
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2090,11 +2004,8 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2117,11 +2028,8 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2144,11 +2052,8 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2171,11 +2076,8 @@
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2198,11 +2100,8 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2225,11 +2124,8 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2252,11 +2148,8 @@
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2279,11 +2172,8 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2306,11 +2196,8 @@
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2333,9 +2220,6 @@
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2345,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,15 +2242,14 @@
     <col min="3" max="3" width="18.140625"/>
     <col min="4" max="4" width="21.42578125"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625"/>
-    <col min="7" max="7" width="12.140625"/>
-    <col min="8" max="8" width="10.42578125"/>
-    <col min="9" max="9" width="25.85546875"/>
-    <col min="10" max="23" width="7"/>
-    <col min="24" max="1023" width="15.140625"/>
+    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125"/>
+    <col min="8" max="8" width="25.85546875"/>
+    <col min="9" max="22" width="7"/>
+    <col min="23" max="1022" width="15.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2382,10 +2265,12 @@
       <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -2399,9 +2284,8 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2413,10 +2297,12 @@
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -2430,9 +2316,8 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -2444,10 +2329,12 @@
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -2461,9 +2348,8 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
@@ -2475,10 +2361,12 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -2492,9 +2380,8 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2505,7 +2392,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -2519,9 +2406,8 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
@@ -2534,7 +2420,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -2548,9 +2434,8 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
@@ -2561,7 +2446,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
@@ -2569,7 +2454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
@@ -2580,7 +2465,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2588,7 +2473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2598,8 +2483,11 @@
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -2607,7 +2495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -2617,8 +2505,11 @@
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>71</v>
       </c>
@@ -2626,7 +2517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -2636,8 +2527,11 @@
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2649,8 +2543,11 @@
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -2660,8 +2557,11 @@
       <c r="E17" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2669,7 +2569,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>72</v>
       </c>
@@ -2677,7 +2577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -2685,15 +2585,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E29" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
     </row>
   </sheetData>
